--- a/OldCMTFor161070481/Computo_Ripianificato_TEST_SEC.xlsx
+++ b/OldCMTFor161070481/Computo_Ripianificato_TEST_SEC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="620">
   <si>
     <t/>
   </si>
@@ -11769,10 +11769,10 @@
         <v>29</v>
       </c>
       <c r="E44" t="n" s="3">
-        <v>1344.93</v>
+        <v>426.53</v>
       </c>
       <c r="F44" t="n" s="3">
-        <v>31.01</v>
+        <v>12.01</v>
       </c>
       <c r="G44" t="n" s="3">
         <v>29.0</v>
@@ -11784,13 +11784,13 @@
         <v>12.0</v>
       </c>
       <c r="J44" t="n" s="3">
-        <v>1476.04</v>
+        <v>538.64</v>
       </c>
       <c r="K44" t="n" s="4">
         <v>2.1</v>
       </c>
       <c r="L44" t="n" s="5">
-        <v>3099.6839999999997</v>
+        <v>1131.144</v>
       </c>
     </row>
     <row r="45">
@@ -12351,8 +12351,8 @@
       <c r="E61" t="n" s="3">
         <v>0.0</v>
       </c>
-      <c r="F61" t="n" s="3">
-        <v>0.0</v>
+      <c r="F61" t="s" s="3">
+        <v>13</v>
       </c>
       <c r="G61" t="s" s="3">
         <v>13</v>

--- a/OldCMTFor161070481/Computo_Ripianificato_TEST_SEC.xlsx
+++ b/OldCMTFor161070481/Computo_Ripianificato_TEST_SEC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="620">
   <si>
     <t/>
   </si>
@@ -11769,10 +11769,10 @@
         <v>29</v>
       </c>
       <c r="E44" t="n" s="3">
-        <v>426.53</v>
+        <v>1344.93</v>
       </c>
       <c r="F44" t="n" s="3">
-        <v>12.01</v>
+        <v>31.01</v>
       </c>
       <c r="G44" t="n" s="3">
         <v>29.0</v>
@@ -11784,13 +11784,13 @@
         <v>12.0</v>
       </c>
       <c r="J44" t="n" s="3">
-        <v>538.64</v>
+        <v>1476.04</v>
       </c>
       <c r="K44" t="n" s="4">
         <v>2.1</v>
       </c>
       <c r="L44" t="n" s="5">
-        <v>1131.144</v>
+        <v>3099.6839999999997</v>
       </c>
     </row>
     <row r="45">
@@ -12351,8 +12351,8 @@
       <c r="E61" t="n" s="3">
         <v>0.0</v>
       </c>
-      <c r="F61" t="s" s="3">
-        <v>13</v>
+      <c r="F61" t="n" s="3">
+        <v>0.0</v>
       </c>
       <c r="G61" t="s" s="3">
         <v>13</v>
